--- a/Bestandenselektie.HKD/Assets/Excel-invulformulier ZCBS.xlsx
+++ b/Bestandenselektie.HKD/Assets/Excel-invulformulier ZCBS.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Invulvelden" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Invulvelden!$A$1:$AJ$2</definedName>
     <definedName function="false" hidden="false" name="Agrarisch" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="Anders" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="Archeologie" vbProcedure="false">#REF!</definedName>
@@ -777,30 +776,7 @@
     <cellStyle name="Standaard 24" xfId="21"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF5998CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -883,10 +859,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1069,11 +1041,11 @@
   <dimension ref="A1:FF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="V5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
-      <selection pane="topRight" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topRight" activeCell="V2" activeCellId="0" sqref="V2"/>
       <selection pane="bottomLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
-      <selection pane="bottomRight" activeCell="A3" activeCellId="0" sqref="3:3"/>
+      <selection pane="bottomRight" activeCell="AD2" activeCellId="0" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1107,7 +1079,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="27" style="8" width="10.56"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="8" width="13.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="8" width="16.56"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="1" width="21.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="21.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="9" width="110.67"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="32" style="1" width="20.88"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="33" min="33" style="1" width="20.44"/>
@@ -1117,7 +1089,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="163" style="8" width="9.11"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="true" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="11" customFormat="true" ht="12" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="n">
         <v>0</v>
       </c>
@@ -1588,10 +1560,9 @@
       <c r="FF2" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ2"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3"/>
-    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4"/>
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
+    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1600,6 +1571,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bestandenselektie.HKD/Assets/Excel-invulformulier ZCBS.xlsx
+++ b/Bestandenselektie.HKD/Assets/Excel-invulformulier ZCBS.xlsx
@@ -10,78 +10,17 @@
   <sheets>
     <sheet name="Invulvelden" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="false" name="Agrarisch" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Anders" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Archeologie" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Bedrijven" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Begraafplaats" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Cartografie" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Categorie" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Collectie" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Document" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Dorpsgezicht" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Evenement" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Folklore" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Fotos_Algemeen" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Gebeurtenis" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Gebouwen" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Gemeente" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Gezondheidszorg" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Infrastructuur" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Kastelen_Havezaten" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Kerken_Kloosters" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Kunst_Cultuur" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Media" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Monumenten" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Natuur" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Oorlog" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Religie" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Rubrieken" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Scholen" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Sport_Sportpark" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Toerisme" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Verenigingen" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Verkeer_Vervoer" vbProcedure="false">#REF!</definedName>
-  </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
-  <si>
-    <t xml:space="preserve">01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <r>
       <rPr>
@@ -468,11 +407,10 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+  <fonts count="14">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -490,26 +428,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -520,13 +438,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <i val="true"/>
       <sz val="8"/>
       <color theme="1"/>
@@ -542,6 +453,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <u val="single"/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
@@ -576,6 +494,13 @@
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFC00000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
@@ -604,7 +529,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -628,152 +553,75 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Standaard 24" xfId="21"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -862,9 +710,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -872,46 +720,46 @@
         <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="18a303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="0369a3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="a33e03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="8e03a3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="c99c00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="c9211e"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0000ee"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="551a8b"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -919,67 +767,25 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -998,35 +804,11 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -1040,524 +822,386 @@
   </sheetPr>
   <dimension ref="A1:FF2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="V5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
-      <selection pane="topRight" activeCell="V2" activeCellId="0" sqref="V2"/>
-      <selection pane="bottomLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
-      <selection pane="bottomRight" activeCell="AD2" activeCellId="0" sqref="AD2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="1" width="11.11"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="1" width="11.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="18.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="25.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="41.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="35.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="110.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="12.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="7" width="16.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="22.67"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="7" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="8" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="8" width="22.11"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="18" style="1" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="8" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="8" width="31.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="9" width="44.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="8" width="26.88"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="23" min="23" style="8" width="23.33"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="24" min="24" style="1" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="8" width="22.11"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="26" min="26" style="8" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="27" style="8" width="10.56"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="8" width="13.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="8" width="16.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="21.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="9" width="110.67"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="32" style="1" width="20.88"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="33" min="33" style="1" width="20.44"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="35" min="34" style="1" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="36" min="36" style="1" width="22.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="162" min="37" style="10" width="9.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="163" style="8" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="1" style="1" width="2.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="41.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="110.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="1" width="2.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.7"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="1" width="3.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="18.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="35.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="22.05"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="18" style="1" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="31.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="44.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="26.86"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="23" min="23" style="1" width="22.71"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="24" min="24" style="1" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="22.05"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="26" style="1" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="1" width="13.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="110.66"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="36" min="32" style="1" width="3.51"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="true" ht="12" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="n">
+    <row r="1" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="15" t="n">
+      <c r="J2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="15" t="n">
+      <c r="L2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="16" t="n">
+      <c r="M2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="16" t="n">
+      <c r="N2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="12" t="n">
+      <c r="O2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="12" t="n">
+      <c r="P2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="11" t="n">
+      <c r="Q2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="11" t="n">
+      <c r="R2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="11" t="n">
+      <c r="S2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="17" t="n">
+      <c r="T2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="11" t="n">
+      <c r="U2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="11" t="n">
+      <c r="V2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="11" t="n">
+      <c r="W2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="11" t="n">
+      <c r="X2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="11" t="n">
+      <c r="Y2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="11" t="n">
+      <c r="Z2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="11" t="n">
+      <c r="AA2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="11" t="n">
+      <c r="AB2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="11" t="n">
+      <c r="AC2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="17" t="n">
+      <c r="AD2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="11" t="n">
+      <c r="AE2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="11" t="n">
+      <c r="AF2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="11" t="n">
+      <c r="AG2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="11" t="n">
+      <c r="AH2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="11" t="n">
+      <c r="AI2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="18"/>
-      <c r="AX1" s="18"/>
-      <c r="AY1" s="18"/>
-      <c r="AZ1" s="18"/>
-      <c r="BA1" s="18"/>
-      <c r="BB1" s="18"/>
-      <c r="BC1" s="18"/>
-      <c r="BD1" s="18"/>
-      <c r="BE1" s="18"/>
-      <c r="BF1" s="18"/>
-      <c r="BG1" s="18"/>
-      <c r="BH1" s="18"/>
-      <c r="BI1" s="18"/>
-      <c r="BJ1" s="18"/>
-      <c r="BK1" s="18"/>
-      <c r="BL1" s="18"/>
-      <c r="BM1" s="18"/>
-      <c r="BN1" s="18"/>
-      <c r="BO1" s="18"/>
-      <c r="BP1" s="18"/>
-      <c r="BQ1" s="18"/>
-      <c r="BR1" s="18"/>
-      <c r="BS1" s="18"/>
-      <c r="BT1" s="18"/>
-      <c r="BU1" s="18"/>
-      <c r="BV1" s="18"/>
-      <c r="BW1" s="18"/>
-      <c r="BX1" s="18"/>
-      <c r="BY1" s="18"/>
-      <c r="BZ1" s="18"/>
-      <c r="CA1" s="18"/>
-      <c r="CB1" s="18"/>
-      <c r="CC1" s="18"/>
-      <c r="CD1" s="18"/>
-      <c r="CE1" s="18"/>
-      <c r="CF1" s="18"/>
-      <c r="CG1" s="18"/>
-      <c r="CH1" s="18"/>
-      <c r="CI1" s="18"/>
-      <c r="CJ1" s="18"/>
-      <c r="CK1" s="18"/>
-      <c r="CL1" s="18"/>
-      <c r="CM1" s="18"/>
-      <c r="CN1" s="18"/>
-      <c r="CO1" s="18"/>
-      <c r="CP1" s="18"/>
-      <c r="CQ1" s="18"/>
-      <c r="CR1" s="18"/>
-      <c r="CS1" s="18"/>
-      <c r="CT1" s="18"/>
-      <c r="CU1" s="18"/>
-      <c r="CV1" s="18"/>
-      <c r="CW1" s="18"/>
-      <c r="CX1" s="18"/>
-      <c r="CY1" s="18"/>
-      <c r="CZ1" s="18"/>
-      <c r="DA1" s="18"/>
-      <c r="DB1" s="18"/>
-      <c r="DC1" s="18"/>
-      <c r="DD1" s="18"/>
-      <c r="DE1" s="18"/>
-      <c r="DF1" s="18"/>
-      <c r="DG1" s="18"/>
-      <c r="DH1" s="18"/>
-      <c r="DI1" s="18"/>
-      <c r="DJ1" s="18"/>
-      <c r="DK1" s="18"/>
-      <c r="DL1" s="18"/>
-      <c r="DM1" s="18"/>
-      <c r="DN1" s="18"/>
-      <c r="DO1" s="18"/>
-      <c r="DP1" s="18"/>
-      <c r="DQ1" s="18"/>
-      <c r="DR1" s="18"/>
-      <c r="DS1" s="18"/>
-      <c r="DT1" s="18"/>
-      <c r="DU1" s="18"/>
-      <c r="DV1" s="18"/>
-      <c r="DW1" s="18"/>
-      <c r="DX1" s="18"/>
-      <c r="DY1" s="18"/>
-      <c r="DZ1" s="18"/>
-      <c r="EA1" s="18"/>
-      <c r="EB1" s="18"/>
-      <c r="EC1" s="18"/>
-      <c r="ED1" s="18"/>
-      <c r="EE1" s="18"/>
-      <c r="EF1" s="18"/>
-      <c r="EG1" s="18"/>
-      <c r="EH1" s="18"/>
-      <c r="EI1" s="18"/>
-      <c r="EJ1" s="18"/>
-      <c r="EK1" s="18"/>
-      <c r="EL1" s="18"/>
-      <c r="EM1" s="18"/>
-      <c r="EN1" s="18"/>
-      <c r="EO1" s="18"/>
-      <c r="EP1" s="18"/>
-      <c r="EQ1" s="18"/>
-      <c r="ER1" s="18"/>
-      <c r="ES1" s="18"/>
-      <c r="ET1" s="18"/>
-      <c r="EU1" s="18"/>
-      <c r="EV1" s="18"/>
-      <c r="EW1" s="18"/>
-      <c r="EX1" s="18"/>
-      <c r="EY1" s="18"/>
-      <c r="EZ1" s="18"/>
-      <c r="FA1" s="18"/>
-      <c r="FB1" s="18"/>
-      <c r="FC1" s="18"/>
-      <c r="FD1" s="18"/>
-      <c r="FE1" s="18"/>
-      <c r="FF1" s="18"/>
-    </row>
-    <row r="2" s="31" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z2" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA2" s="26" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE2" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF2" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG2" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH2" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ2" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="29"/>
-      <c r="AV2" s="29"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="30"/>
-      <c r="BE2" s="30"/>
-      <c r="BF2" s="30"/>
-      <c r="BG2" s="30"/>
-      <c r="BH2" s="30"/>
-      <c r="BI2" s="30"/>
-      <c r="BJ2" s="30"/>
-      <c r="BK2" s="30"/>
-      <c r="BL2" s="30"/>
-      <c r="BM2" s="30"/>
-      <c r="BN2" s="30"/>
-      <c r="BO2" s="30"/>
-      <c r="BP2" s="30"/>
-      <c r="BQ2" s="30"/>
-      <c r="BR2" s="30"/>
-      <c r="BS2" s="30"/>
-      <c r="BT2" s="30"/>
-      <c r="BU2" s="30"/>
-      <c r="BV2" s="30"/>
-      <c r="BW2" s="30"/>
-      <c r="BX2" s="30"/>
-      <c r="BY2" s="30"/>
-      <c r="BZ2" s="30"/>
-      <c r="CA2" s="30"/>
-      <c r="CB2" s="30"/>
-      <c r="CC2" s="30"/>
-      <c r="CD2" s="30"/>
-      <c r="CE2" s="30"/>
-      <c r="CF2" s="30"/>
-      <c r="CG2" s="30"/>
-      <c r="CH2" s="30"/>
-      <c r="CI2" s="30"/>
-      <c r="CJ2" s="30"/>
-      <c r="CK2" s="30"/>
-      <c r="CL2" s="30"/>
-      <c r="CM2" s="30"/>
-      <c r="CN2" s="30"/>
-      <c r="CO2" s="30"/>
-      <c r="CP2" s="30"/>
-      <c r="CQ2" s="30"/>
-      <c r="CR2" s="30"/>
-      <c r="CS2" s="30"/>
-      <c r="CT2" s="30"/>
-      <c r="CU2" s="30"/>
-      <c r="CV2" s="30"/>
-      <c r="CW2" s="30"/>
-      <c r="CX2" s="30"/>
-      <c r="CY2" s="30"/>
-      <c r="CZ2" s="30"/>
-      <c r="DA2" s="30"/>
-      <c r="DB2" s="30"/>
-      <c r="DC2" s="30"/>
-      <c r="DD2" s="30"/>
-      <c r="DE2" s="30"/>
-      <c r="DF2" s="30"/>
-      <c r="DG2" s="30"/>
-      <c r="DH2" s="30"/>
-      <c r="DI2" s="30"/>
-      <c r="DJ2" s="30"/>
-      <c r="DK2" s="30"/>
-      <c r="DL2" s="30"/>
-      <c r="DM2" s="30"/>
-      <c r="DN2" s="30"/>
-      <c r="DO2" s="30"/>
-      <c r="DP2" s="30"/>
-      <c r="DQ2" s="30"/>
-      <c r="DR2" s="30"/>
-      <c r="DS2" s="30"/>
-      <c r="DT2" s="30"/>
-      <c r="DU2" s="30"/>
-      <c r="DV2" s="30"/>
-      <c r="DW2" s="30"/>
-      <c r="DX2" s="30"/>
-      <c r="DY2" s="30"/>
-      <c r="DZ2" s="30"/>
-      <c r="EA2" s="30"/>
-      <c r="EB2" s="30"/>
-      <c r="EC2" s="30"/>
-      <c r="ED2" s="30"/>
-      <c r="EE2" s="30"/>
-      <c r="EF2" s="30"/>
-      <c r="EG2" s="30"/>
-      <c r="EH2" s="30"/>
-      <c r="EI2" s="30"/>
-      <c r="EJ2" s="30"/>
-      <c r="EK2" s="30"/>
-      <c r="EL2" s="30"/>
-      <c r="EM2" s="30"/>
-      <c r="EN2" s="30"/>
-      <c r="EO2" s="30"/>
-      <c r="EP2" s="30"/>
-      <c r="EQ2" s="30"/>
-      <c r="ER2" s="30"/>
-      <c r="ES2" s="30"/>
-      <c r="ET2" s="30"/>
-      <c r="EU2" s="30"/>
-      <c r="EV2" s="30"/>
-      <c r="EW2" s="30"/>
-      <c r="EX2" s="30"/>
-      <c r="EY2" s="30"/>
-      <c r="EZ2" s="30"/>
-      <c r="FA2" s="30"/>
-      <c r="FB2" s="30"/>
-      <c r="FC2" s="30"/>
-      <c r="FD2" s="30"/>
-      <c r="FE2" s="30"/>
-      <c r="FF2" s="30"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="13"/>
+      <c r="BB2" s="13"/>
+      <c r="BC2" s="13"/>
+      <c r="BD2" s="13"/>
+      <c r="BE2" s="13"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="13"/>
+      <c r="BH2" s="13"/>
+      <c r="BI2" s="13"/>
+      <c r="BJ2" s="13"/>
+      <c r="BK2" s="13"/>
+      <c r="BL2" s="13"/>
+      <c r="BM2" s="13"/>
+      <c r="BN2" s="13"/>
+      <c r="BO2" s="13"/>
+      <c r="BP2" s="13"/>
+      <c r="BQ2" s="13"/>
+      <c r="BR2" s="13"/>
+      <c r="BS2" s="13"/>
+      <c r="BT2" s="13"/>
+      <c r="BU2" s="13"/>
+      <c r="BV2" s="13"/>
+      <c r="BW2" s="13"/>
+      <c r="BX2" s="13"/>
+      <c r="BY2" s="13"/>
+      <c r="BZ2" s="13"/>
+      <c r="CA2" s="13"/>
+      <c r="CB2" s="13"/>
+      <c r="CC2" s="13"/>
+      <c r="CD2" s="13"/>
+      <c r="CE2" s="13"/>
+      <c r="CF2" s="13"/>
+      <c r="CG2" s="13"/>
+      <c r="CH2" s="13"/>
+      <c r="CI2" s="13"/>
+      <c r="CJ2" s="13"/>
+      <c r="CK2" s="13"/>
+      <c r="CL2" s="13"/>
+      <c r="CM2" s="13"/>
+      <c r="CN2" s="13"/>
+      <c r="CO2" s="13"/>
+      <c r="CP2" s="13"/>
+      <c r="CQ2" s="13"/>
+      <c r="CR2" s="13"/>
+      <c r="CS2" s="13"/>
+      <c r="CT2" s="13"/>
+      <c r="CU2" s="13"/>
+      <c r="CV2" s="13"/>
+      <c r="CW2" s="13"/>
+      <c r="CX2" s="13"/>
+      <c r="CY2" s="13"/>
+      <c r="CZ2" s="13"/>
+      <c r="DA2" s="13"/>
+      <c r="DB2" s="13"/>
+      <c r="DC2" s="13"/>
+      <c r="DD2" s="13"/>
+      <c r="DE2" s="13"/>
+      <c r="DF2" s="13"/>
+      <c r="DG2" s="13"/>
+      <c r="DH2" s="13"/>
+      <c r="DI2" s="13"/>
+      <c r="DJ2" s="13"/>
+      <c r="DK2" s="13"/>
+      <c r="DL2" s="13"/>
+      <c r="DM2" s="13"/>
+      <c r="DN2" s="13"/>
+      <c r="DO2" s="13"/>
+      <c r="DP2" s="13"/>
+      <c r="DQ2" s="13"/>
+      <c r="DR2" s="13"/>
+      <c r="DS2" s="13"/>
+      <c r="DT2" s="13"/>
+      <c r="DU2" s="13"/>
+      <c r="DV2" s="13"/>
+      <c r="DW2" s="13"/>
+      <c r="DX2" s="13"/>
+      <c r="DY2" s="13"/>
+      <c r="DZ2" s="13"/>
+      <c r="EA2" s="13"/>
+      <c r="EB2" s="13"/>
+      <c r="EC2" s="13"/>
+      <c r="ED2" s="13"/>
+      <c r="EE2" s="13"/>
+      <c r="EF2" s="13"/>
+      <c r="EG2" s="13"/>
+      <c r="EH2" s="13"/>
+      <c r="EI2" s="13"/>
+      <c r="EJ2" s="13"/>
+      <c r="EK2" s="13"/>
+      <c r="EL2" s="13"/>
+      <c r="EM2" s="13"/>
+      <c r="EN2" s="13"/>
+      <c r="EO2" s="13"/>
+      <c r="EP2" s="13"/>
+      <c r="EQ2" s="13"/>
+      <c r="ER2" s="13"/>
+      <c r="ES2" s="13"/>
+      <c r="ET2" s="13"/>
+      <c r="EU2" s="13"/>
+      <c r="EV2" s="13"/>
+      <c r="EW2" s="13"/>
+      <c r="EX2" s="13"/>
+      <c r="EY2" s="13"/>
+      <c r="EZ2" s="13"/>
+      <c r="FA2" s="13"/>
+      <c r="FB2" s="13"/>
+      <c r="FC2" s="13"/>
+      <c r="FD2" s="13"/>
+      <c r="FE2" s="13"/>
+      <c r="FF2" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2">
@@ -1565,11 +1209,11 @@
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/Bestandenselektie.HKD/Assets/Excel-invulformulier ZCBS.xlsx
+++ b/Bestandenselektie.HKD/Assets/Excel-invulformulier ZCBS.xlsx
@@ -20,54 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Afkorting instantie </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">intern</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Nummer instantie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> intern</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Kolom evt. voor eigen gebruik</t>
   </si>
@@ -93,53 +46,9 @@
     <t xml:space="preserve">Datering</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">LV = Materiaal </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">niet in gebruik bij instelling</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Extra foto's</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">LV = Afmetingen </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">niet in gebruik bij instelling</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Plaats</t>
   </si>
   <si>
@@ -152,30 +61,6 @@
     <t xml:space="preserve">Locatie afbeelding</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">LV = Taxatiebedrag </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">niet in gebruik bij instelling</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Archiefnr foto</t>
   </si>
   <si>
@@ -191,211 +76,13 @@
     <t xml:space="preserve">Plaatsing op internet</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">LV = Catgorie </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">niet in gebruik bij instelling</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Collectie</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">LV = Thema </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">niet in gebruik bij instelling</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">LV = Stijl </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">niet in gebruik bij instelling</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Google Map</t>
   </si>
   <si>
     <t xml:space="preserve">Bron origineel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creative Commons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kopie van oorspronkelijke omschrijving (veld 06) mét namenlijsten indien aanwezig</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">LV = Vergaringvan </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">niet in gebruik bij instelling</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">LV = Vergaringdat </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">niet in gebruik bij instelling</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Systeem gegeven </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">intern</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Systeem gegeven </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> intern</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Record aangepast (systeem gegeven)  </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">intern</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -407,7 +94,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -438,39 +125,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
-      <sz val="8"/>
-      <color theme="1"/>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="8"/>
-      <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -553,7 +218,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -574,43 +239,43 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -823,7 +488,7 @@
   <dimension ref="A1:FF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -968,114 +633,84 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="O2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="P2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="Q2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="R2" s="9"/>
+      <c r="S2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="T2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="U2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="W2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="X2" s="9"/>
+      <c r="Y2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="AC2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
       <c r="AK2" s="10"/>
       <c r="AL2" s="10"/>
       <c r="AM2" s="10"/>

--- a/Bestandenselektie.HKD/Assets/Excel-invulformulier ZCBS.xlsx
+++ b/Bestandenselektie.HKD/Assets/Excel-invulformulier ZCBS.xlsx
@@ -52,10 +52,10 @@
     <t xml:space="preserve">Plaats</t>
   </si>
   <si>
-    <t xml:space="preserve">Buurtschap/wijk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adres (of locatie)</t>
+    <t xml:space="preserve">Buurt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adres</t>
   </si>
   <si>
     <t xml:space="preserve">Locatie afbeelding</t>
@@ -67,13 +67,13 @@
     <t xml:space="preserve">Archieflocatie</t>
   </si>
   <si>
-    <t xml:space="preserve">Interne opm.</t>
+    <t xml:space="preserve">Opmerking</t>
   </si>
   <si>
     <t xml:space="preserve">Categorie</t>
   </si>
   <si>
-    <t xml:space="preserve">Plaatsing op internet</t>
+    <t xml:space="preserve">Internet</t>
   </si>
   <si>
     <t xml:space="preserve">Collectie</t>
@@ -487,8 +487,8 @@
   </sheetPr>
   <dimension ref="A1:FF2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC1" activeCellId="0" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -506,13 +506,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.7"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="1" width="3.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="18.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="35.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="22.05"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="18" style="1" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="31.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="44.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="16.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="26.86"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="23" min="23" style="1" width="22.71"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="24" min="24" style="1" width="3.51"/>

--- a/Bestandenselektie.HKD/Assets/Excel-invulformulier ZCBS.xlsx
+++ b/Bestandenselektie.HKD/Assets/Excel-invulformulier ZCBS.xlsx
@@ -487,8 +487,8 @@
   </sheetPr>
   <dimension ref="A1:FF2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC1" activeCellId="0" sqref="AC1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -506,7 +506,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.7"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="1" width="3.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="22.05"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="18" style="1" width="3.51"/>
